--- a/Input/MATSimInputAGBSimple.xlsx
+++ b/Input/MATSimInputAGBSimple.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDBA69B-5B42-4F1E-B74A-81F858CA6FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="16695" windowHeight="2985" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="8385" windowHeight="2625" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>NumSims</t>
   </si>
@@ -109,15 +108,6 @@
   </si>
   <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>0.9,0.1</t>
-  </si>
-  <si>
-    <t>1.5,4.5</t>
-  </si>
-  <si>
-    <t>2,7</t>
   </si>
   <si>
     <t>LaneDir</t>
@@ -129,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,13 +474,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -498,7 +490,7 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
@@ -552,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>22</v>
@@ -587,7 +579,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="B2" s="4">
         <v>1000</v>
@@ -599,7 +591,7 @@
         <v>0.5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
@@ -625,14 +617,14 @@
       <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>17</v>
@@ -658,7 +650,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="B3" s="4">
         <v>1000</v>
@@ -670,7 +662,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -696,14 +688,14 @@
       <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>29</v>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>17</v>
@@ -729,7 +721,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="B4" s="4">
         <v>1000</v>
@@ -741,7 +733,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -767,14 +759,14 @@
       <c r="M4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>29</v>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>17</v>
@@ -800,12 +792,6 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
